--- a/resultTest/jxh0.3-0.4-jxw0.4-0.5-cw0.12-0.12normB.xlsx
+++ b/resultTest/jxh0.3-0.4-jxw0.4-0.5-cw0.12-0.12normB.xlsx
@@ -15,9 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>槽高[mm]</t>
+  </si>
+  <si>
+    <t>槽宽[mm]</t>
+  </si>
+  <si>
+    <t>极齿宽[mm]</t>
+  </si>
+  <si>
+    <t>左极齿ΔB[T]</t>
+  </si>
+  <si>
+    <t>左极齿数</t>
+  </si>
+  <si>
+    <t>右极齿ΔB[T]</t>
+  </si>
+  <si>
+    <t>右极齿数</t>
+  </si>
+  <si>
+    <t>总ΔB[T]</t>
   </si>
   <si>
     <t>序号</t>
@@ -512,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -623,6 +650,7 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -773,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +810,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1138,31 +1167,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
